--- a/biology/Botanique/Jardin_botanique_José_Celestino_Mutis/Jardin_botanique_José_Celestino_Mutis.xlsx
+++ b/biology/Botanique/Jardin_botanique_José_Celestino_Mutis/Jardin_botanique_José_Celestino_Mutis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_Jos%C3%A9_Celestino_Mutis</t>
+          <t>Jardin_botanique_José_Celestino_Mutis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique José Celestino Mutis (Jardín Botánico José Celestino Mutis) est un jardin et un centre de recherche de Bogota, en Colombie, fondé en 1955, nommé en hommage au botaniste José Celestino Mutis (1732-1808). 
